--- a/DMSNewVSale_2025-10-25_11-31.xlsx
+++ b/DMSNewVSale_2025-10-25_11-31.xlsx
@@ -83,6 +83,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ATOR 10MG 7 TAB.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -138,9 +150,6 @@
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>26.00</t>
@@ -944,7 +953,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -954,14 +963,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>11</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -994,7 +1003,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1003,14 +1012,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1020,14 +1029,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1036,14 +1045,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1053,14 +1062,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1076,7 +1085,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1086,14 +1095,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1102,14 +1111,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1126,7 +1135,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1142,7 +1151,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1152,14 +1161,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1168,28 +1177,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>11</v>
@@ -1222,7 +1231,7 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>11</v>
@@ -1234,14 +1243,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1258,7 +1267,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1267,7 +1276,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1284,51 +1293,84 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>60</v>
       </c>
-      <c t="s" r="Q20" s="12">
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>18</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>62</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="26.25" customHeight="1">
-      <c r="N21" s="13">
-        <v>693.60000000000002</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>61</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>62</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>63</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    <row r="22" ht="26.25" customHeight="1">
+      <c r="N22" s="13">
+        <v>783.60000000000002</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>64</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>65</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>66</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1407,10 +1449,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
